--- a/AlquileresProp/prop2 - Copy.xlsx
+++ b/AlquileresProp/prop2 - Copy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="296" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B2A751-0FD2-4850-9B1E-8313F6FA8648}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="34785" yWindow="-8370" windowWidth="14610" windowHeight="15150" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -759,51 +759,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,8 +817,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1137,11 +1140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -1226,7 +1229,7 @@
       <c r="G2" s="5">
         <v>35182</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <f>+F2+G2</f>
         <v>115182</v>
       </c>
@@ -1562,7 +1565,7 @@
       <c r="G9" s="5">
         <v>120000</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>567500</v>
       </c>
@@ -1950,30 +1953,30 @@
       </c>
       <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45714</v>
       </c>
       <c r="J17" s="6">
         <v>46753</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K16:O17" ca="1" si="1">TODAY()</f>
-        <v>45681</v>
+        <f t="shared" ref="K17:O17" ca="1" si="1">TODAY()</f>
+        <v>45714</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45714</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45714</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45714</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
